--- a/Coursework/Simulations.xlsx
+++ b/Coursework/Simulations.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhiyb\Documents\Design\Imperial\ICD\Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -10854,6 +10854,8 @@
         <c:axId val="359285464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11033,37 +11035,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -12665,6 +12637,8 @@
         <c:axId val="224483144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12844,37 +12818,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -14476,6 +14420,8 @@
         <c:axId val="359285464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -19106,7 +19052,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19141,7 +19093,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19178,7 +19136,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19210,7 +19174,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19245,7 +19215,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19277,7 +19253,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19314,7 +19296,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19346,7 +19334,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19872,7 +19866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -34771,7 +34765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -40415,7 +40411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Coursework/Simulations.xlsx
+++ b/Coursework/Simulations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -12839,7 +12839,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -14582,7 +14582,3406 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11071364497159374"/>
+          <c:y val="7.0512856103803812E-2"/>
+          <c:w val="0.84287285291870162"/>
+          <c:h val="0.7066130156536522"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D06'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D06'!$A$2:$A$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="255"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D06'!$B$2:$B$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="255"/>
+                <c:pt idx="0">
+                  <c:v>0.40389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45490000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.4627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.47449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4824</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.49020000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.50590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50980000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51759999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52159999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5373</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55289999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.58040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.58430000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.59609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.60389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.60780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61570000000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.62350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.62749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.63139999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.63919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.6431</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.67449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.6784</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.68240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.69020000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69410000000000005</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70589999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.70979999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.7137</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.71760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.72160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.72550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.72940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.73329999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.73729999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.74119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.74509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.75290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.75690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.76080000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.76470000000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.76859999999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.77649999999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.78039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.7843</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.78820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.79220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.79610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.80389999999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.80779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.81179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.81569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.8196</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.82350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.82750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83140000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83530000000000004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.83919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.84309999999999996</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.84709999999999996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.85489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.85880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.86270000000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.86670000000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.87060000000000004</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.87450000000000006</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.87839999999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.88239999999999996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.88629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.89019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.89410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.90590000000000004</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.90980000000000005</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.91369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.91759999999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.92159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.92549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.9294</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.93330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.93730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.94120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.94510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.95289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.95689999999999997</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.96079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.9647</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.96860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.97250000000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.97650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.98040000000000005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.98429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.98819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.0039</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.0078</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.0118</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.0196000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.0235000000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.0275000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.0314000000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.0353000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.0391999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.0430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.0470999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.0509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.0548999999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.0588</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.0627</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.0667</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.0706</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0745</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.0784</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.0824</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.0863</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.0902000000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.0941000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.1020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.1059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.1097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1136999999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.1175999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1215999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.1294</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1333</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.1373</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.1412</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1451</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.149</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.1529</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1569</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.1608000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.1647000000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.1686000000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.1725000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.1765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.1803999999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.1842999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.1881999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.1921999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.1960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.2039</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.2078</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.2118</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.2157</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.2196</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.2235</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.2275</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.2314000000000001</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.2353000000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.2392000000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.2431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.2471000000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.2548999999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.2587999999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.2626999999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.2666999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.2706</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.2745</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.2784</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.2824</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.2863</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.2902</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.2941</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.302</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.3059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.3098000000000001</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.3137000000000001</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.3176000000000001</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.3216000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.3254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.3293999999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.3332999999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.3372999999999999</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.3411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.3451</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.349</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.3529</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.3569</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.3608</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.3647</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.3686</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.3725000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.3765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.3804000000000001</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.3843000000000001</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.3882000000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.3922000000000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.3960999999999999</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A584-4855-94C8-40FB58BD575D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'D06'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'D06'!$A$2:$A$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="255"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'D06'!$C$2:$C$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="255"/>
+                <c:pt idx="0">
+                  <c:v>0.4022</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4229</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.43159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4541</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46039999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47810000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.48209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.49080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.50570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.53129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.53449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5464</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.55830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57820000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.58120000000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.59060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.59460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.59789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.60640000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61029999999999995</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.62219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.62649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.62970000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63439999999999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.63770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.64170000000000005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.64480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65559999999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66290000000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.66759999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.67110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.6754</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.6784</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.68379999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.68679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.6915</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.69450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.70240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.7097</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.71950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.72370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.72709999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.74219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.74809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.75090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.75519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.75829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.76339999999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.76639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.77049999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.78059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.78420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.7883</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.79159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.79630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.79910000000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.80320000000000003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.80640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.81510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.81930000000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.82240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.82720000000000005</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.83040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.83440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.83750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.84440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.84760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.85140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.85440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.85940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.86250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.86650000000000005</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.86939999999999995</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.87519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.87819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.88249999999999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.88529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.8901</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.89359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.8972</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.90059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.90849999999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.91169999999999995</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.91559999999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.91890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.92349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.92689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.93089999999999995</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.9395</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.94269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.9466</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.94989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.95469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.95760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.96150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.96479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.97829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.98129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.98619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.98929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.99319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.99609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.0018</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.0121</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.0169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.0199</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.0236000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.0266</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.0338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.0411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.0443</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.0488999999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.052</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.0561</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.0589</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.0646</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.0671999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.0713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.0744</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.0822000000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.0860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.0889</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.0953999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.0986</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.1026</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.1054999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.1102000000000001</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.1133</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.1172</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.1201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1256999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1289</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.1322000000000001</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.1354</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.1403000000000001</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.1432</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1471</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.1497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.1578999999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1609</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.1648000000000001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.1677</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.1724000000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.1754</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.1791</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1.1821999999999999</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.1876</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.1904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1.1943999999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1.1975</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.2020999999999999</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1.2052</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1.2089000000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.2116</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.2182999999999999</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1.2214</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.2252000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.228</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.2326999999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1.2356</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1.2395</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1.2423</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1.2478</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1.2507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.2545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.2574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.2621</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1.2648999999999999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.2686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1.2715000000000001</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1.2788999999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1.2819</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1.2858000000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1.2886</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1.2931999999999999</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.2961</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.2999000000000001</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1.3027</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1.3083</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1.3111999999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1.3177000000000001</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.3225</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1.3253999999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1.3292999999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1.3321000000000001</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1.3388</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1.3416999999999999</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1.3454999999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.3483000000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1.3531</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1.3559000000000001</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.3596999999999999</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.3624000000000001</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.3683000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1.371</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.3749</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1.3775999999999999</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.3824000000000001</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.3854</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.3891</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1.3918999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A584-4855-94C8-40FB58BD575D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="465246840"/>
+        <c:axId val="465244216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="465246840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465244216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="465244216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.4"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465246840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23969567095252334"/>
+          <c:y val="0.89823637100563836"/>
+          <c:w val="0.52060865809495327"/>
+          <c:h val="0.10176362899436149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -14868,6 +18267,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -19035,6 +22474,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -19323,14 +23278,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19352,6 +23307,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D374DE-5ADC-4846-815F-088548FD63D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34765,7 +38756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -40411,9 +44402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F256"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
